--- a/medicine/Sexualité et sexologie/Les_Amants_passagers/Les_Amants_passagers.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Amants_passagers/Les_Amants_passagers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amants passagers (Los amantes pasajeros) est le dix-neuvième long-métrage réalisé par Pedro Almodóvar. C'est une comédie chorale espagnole sortie en 2013.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un Airbus A340[1] de la compagnie espagnole fictive Península décolle pour Mexico. Un problème technique empêche un des trains d'atterrissage de sortir, ce qui oblige l'avion à rebrousser chemin et à tourner en rond au-dessus de l'Espagne. Les tours de contrôle appelées au secours refusent de le recevoir, seul l'aéroport de La Mancha désaffecté pourrait être libre pour un atterrissage d'urgence. Les passagers de la classe économique ont été drogués par les stewards pour éviter qu'ils paniquent. Les passagers de la classe affaire et les membres d'équipage, pensant vivre leurs dernières heures, s'adonnent à leurs fantasmes sexuels en toute liberté.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un Airbus A340 de la compagnie espagnole fictive Península décolle pour Mexico. Un problème technique empêche un des trains d'atterrissage de sortir, ce qui oblige l'avion à rebrousser chemin et à tourner en rond au-dessus de l'Espagne. Les tours de contrôle appelées au secours refusent de le recevoir, seul l'aéroport de La Mancha désaffecté pourrait être libre pour un atterrissage d'urgence. Les passagers de la classe économique ont été drogués par les stewards pour éviter qu'ils paniquent. Les passagers de la classe affaire et les membres d'équipage, pensant vivre leurs dernières heures, s'adonnent à leurs fantasmes sexuels en toute liberté.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Los amantes pasajeros
 Titre français : Les Amants passagers
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carlos Areces (V. F. : Benjamin Boyer) : Fajardo, un steward
 Raúl Arévalo (V. F. : Cédric Chevalme) : Ulloa, un steward
@@ -602,7 +620,7 @@
 Cecilia Roth (V. F. : Françoise Vallon) : Norma Boss, une ex-actrice porno, passagère de l'avion
 Antonio de la Torre (V. F. : Pierre Tessier) : Alex Acero, le pilote de l'avion
 Hugo Silva (V. F. : Stéphane Fourreau) : Benito Morón, le copilote de l'avion
-Blanca Suárez[2] (V. F. : Nastassja Girard) : Ruth, une ancienne hôtesse de l'air et ex-petite amie de Ricardo Galán
+Blanca Suárez (V. F. : Nastassja Girard) : Ruth, une ancienne hôtesse de l'air et ex-petite amie de Ricardo Galán
 Miguel Ángel Silvestre : le jeune marié en voyage de noces, passager de l'avion
 Laya Martí : la jeune mariée en voyage de noces, passagère de l'avion
 José María Yazpik (es) (V. F. : Olivier Bouana) : Infante, un tueur à gages mexicain, passager de l'avion
@@ -620,7 +638,7 @@
 Ana Wagener : la femme d'Alex Acero (voix au téléphone)
 Agustín Almodóvar (V. F. : Jérôme Pauwels) : le contrôleur aérien
 Esther García (V. F. : Anne Plumet) : la contrôleuse aérienne
-Source et légende : Version française (V. F.) sur AlloDoublage[3]</t>
+Source et légende : Version française (V. F.) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -648,12 +666,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, Pedro Almodóvar annonce son nouveau projet comme étant son grand retour à la comédie pure après vingt ans de films dramatiques voire noirs, et le définit comme un film choral, moral, oral, irréel et très léger ; l'actrice Blanca Suárez[2] évoque « une folle comédie, heavy et punky »[4].
-Le titre du film est une auto-référence[5]. En effet, dans La Mauvaise Éducation, on aperçoit l'affiche d'un film fictif intitulé Los amantes pasajeros dans le bureau du réalisateur Enrique Goded (le personnage incarné par Fele Martínez).
-Tournage
-Le tournage a eu lieu du 8 juillet au 12 septembre 2012 à Madrid (une séquence met ainsi en scène Paz Vega sur le viaduc de Ségovie, connu comme le « pont des suicidaires », qui apparaissait déjà dans Matador[6] et Étreintes brisées), dans l'aéroport abandonné de Ciudad Real où la coquille d'un Airbus A340 a été importée d'Allemagne et remontée pièce par pièce pour les besoins du tournage[1],[7], et à Barajas où ont été prises certaines vues extérieures, cette fois d'un A330[réf. nécessaire].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Pedro Almodóvar annonce son nouveau projet comme étant son grand retour à la comédie pure après vingt ans de films dramatiques voire noirs, et le définit comme un film choral, moral, oral, irréel et très léger ; l'actrice Blanca Suárez évoque « une folle comédie, heavy et punky ».
+Le titre du film est une auto-référence. En effet, dans La Mauvaise Éducation, on aperçoit l'affiche d'un film fictif intitulé Los amantes pasajeros dans le bureau du réalisateur Enrique Goded (le personnage incarné par Fele Martínez).
 </t>
         </is>
       </c>
@@ -679,10 +697,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu du 8 juillet au 12 septembre 2012 à Madrid (une séquence met ainsi en scène Paz Vega sur le viaduc de Ségovie, connu comme le « pont des suicidaires », qui apparaissait déjà dans Matador et Étreintes brisées), dans l'aéroport abandonné de Ciudad Real où la coquille d'un Airbus A340 a été importée d'Allemagne et remontée pièce par pièce pour les besoins du tournage et à Barajas où ont été prises certaines vues extérieures, cette fois d'un A330[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
@@ -709,39 +766,114 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Amants_passagers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Amants_passagers</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 49 % d'opinions favorables pour 131 critiques[8]. Sur Metacritic, il obtient une note moyenne de 55⁄100 pour 36 critiques.
-En France, le site Allociné propose une note moyenne de 3⁄5 à partir de l'interprétation de critiques provenant de 24 titres de presse[9].
-Box-office
-En Espagne, le film totalise 250 000 entrées lors de ses trois premiers jours d'exploitation, ce qui est notamment nettement supérieur aux 175 000 spectateurs qu'avait réunis, deux ans plus tôt, le précédent film de Pedro Almodóvar La piel que habito[10].
-Distinctions
-Sélection au Festival du film de Los Angeles 2013
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 49 % d'opinions favorables pour 131 critiques. Sur Metacritic, il obtient une note moyenne de 55⁄100 pour 36 critiques.
+En France, le site Allociné propose une note moyenne de 3⁄5 à partir de l'interprétation de critiques provenant de 24 titres de presse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Espagne, le film totalise 250 000 entrées lors de ses trois premiers jours d'exploitation, ce qui est notamment nettement supérieur aux 175 000 spectateurs qu'avait réunis, deux ans plus tôt, le précédent film de Pedro Almodóvar La piel que habito.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Amants_passagers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sélection au Festival du film de Los Angeles 2013
 Prix du cinéma européen 2013 :
 Prix du public
 Meilleure comédie européenne</t>
